--- a/config_dummy.xlsx
+++ b/config_dummy.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="pnts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>host</t>
   </si>
@@ -41,6 +42,99 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>dumpFolder</t>
+  </si>
+  <si>
+    <t>filenamePrefix</t>
+  </si>
+  <si>
+    <t>pmuDump_</t>
+  </si>
+  <si>
+    <t>absoluteStartTime</t>
+  </si>
+  <si>
+    <t>varStartYears</t>
+  </si>
+  <si>
+    <t>varStartMonths</t>
+  </si>
+  <si>
+    <t>varStartDays</t>
+  </si>
+  <si>
+    <t>varStartHours</t>
+  </si>
+  <si>
+    <t>varStartMinutes</t>
+  </si>
+  <si>
+    <t>varStartSeconds</t>
+  </si>
+  <si>
+    <t>absoluteEndTime</t>
+  </si>
+  <si>
+    <t>varEndYears</t>
+  </si>
+  <si>
+    <t>varEndMonths</t>
+  </si>
+  <si>
+    <t>varEndDays</t>
+  </si>
+  <si>
+    <t>varEndHours</t>
+  </si>
+  <si>
+    <t>varEndMinutes</t>
+  </si>
+  <si>
+    <t>varEndSeconds</t>
+  </si>
+  <si>
+    <t>fetchWindowDays</t>
+  </si>
+  <si>
+    <t>fetchWindowHours</t>
+  </si>
+  <si>
+    <t>fetchWindowMinutes</t>
+  </si>
+  <si>
+    <t>fetchWindowSeconds</t>
+  </si>
+  <si>
+    <t>sampleAggregationStrategy</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>resampleFrequency</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>ghi</t>
+  </si>
+  <si>
+    <t>data\dumps</t>
+  </si>
+  <si>
+    <t>dummyFetchFlag</t>
   </si>
 </sst>
 </file>
@@ -85,9 +179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -393,15 +488,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,6 +548,219 @@
         <v>123</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44114.999988425923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>789</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
